--- a/biology/Biologie cellulaire et moléculaire/Bio-informatique/Bio-informatique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Bio-informatique/Bio-informatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Écouter cet article (info sur le fichier)
@@ -488,8 +500,8 @@
 → D'autres articles audio
 La bioinformatique (ou bio-informatique), est un champ de recherche multidisciplinaire de la biotechnologie où travaillent de concert biologistes, médecins, informaticiens, mathématiciens, physiciens et bioinformaticiens, dans le but de résoudre un problème scientifique posé par la biologie. Plus généralement, la bio-informatique est l'application de la statistique et de l'informatique à la science biologique. Le spécialiste qui travaille à mi-chemin entre ces sciences et l'informatique est appelé bioinformaticien ou bionaute.
 Le terme bio-informatique peut également décrire, par abus de langage, toutes les applications informatiques résultant de ces recherches[Note 1].
-L'utilisation du terme bio-informatique est documentée pour la première fois en 1970 dans une publication de Paulien Hogeweg et Ben Hesper (université d'Utrecht, Pays-Bas), en référence à l'étude des processus d'information dans les systèmes biotiques[1],[2].
-Ce domaine s'étend de l'analyse du génome à la modélisation de l'évolution d'une population animale dans un environnement donné, en passant par la modélisation moléculaire, l'analyse d'image, l'assemblage de génome et la reconstruction d'arbres phylogénétiques (phylogénie)[3]. Cette discipline constitue la « biologie in silico », par analogie avec in vitro ou in vivo.
+L'utilisation du terme bio-informatique est documentée pour la première fois en 1970 dans une publication de Paulien Hogeweg et Ben Hesper (université d'Utrecht, Pays-Bas), en référence à l'étude des processus d'information dans les systèmes biotiques,.
+Ce domaine s'étend de l'analyse du génome à la modélisation de l'évolution d'une population animale dans un environnement donné, en passant par la modélisation moléculaire, l'analyse d'image, l'assemblage de génome et la reconstruction d'arbres phylogénétiques (phylogénie). Cette discipline constitue la « biologie in silico », par analogie avec in vitro ou in vivo.
 </t>
         </is>
       </c>
@@ -518,7 +530,9 @@
           <t>Définitions et champs d'application</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La bioinformatique est constituée par l'ensemble des concepts et des techniques nécessaires à l'interprétation informatique de l'information biologique. Plusieurs champs d'application ou sous-disciplines se sont constitués :
 la bioinformatique des séquences, qui traite de l'analyse de données issues de l'information génétique contenue dans la séquence de l'ADN ou dans celle des protéines qu'il code. Cette branche s'intéresse en particulier à l'identification des ressemblances entre les séquences, à l'identification des gènes ou de régions biologiquement pertinentes dans l'ADN ou dans les protéines, en se basant sur l'enchaînement ou séquence de leurs composants élémentaires (nucléotides, acides aminés) ;
@@ -556,7 +570,9 @@
           <t>Analyse de séquence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis l'invention du séquençage de l'ADN par Frederick Sanger dans la deuxième moitié des années 1970, les progrès technologiques dans ce domaine ont été tels que le volume des séquences d'ADN disponibles a progressé de manière exponentielle, avec un temps de doublement de l'ordre de 15 à 18 mois, c'est-à-dire un peu plus rapidement que la puissance des processeurs des ordinateurs (Loi de Moore). Un nombre exponentiellement croissant de séquences de génomes ou d'ADN complémentaires sont disponibles, dont l'annotation (ou interprétation de leur fonction biologique) reste à effectuer.
 La première difficulté consiste à organiser cette énorme masse d'information et de la rendre disponible à l'ensemble de la communauté des chercheurs. Cela a été rendu possible grâce à différentes bases de données, accessibles en lignes. À l'échelon mondial, trois grandes institutions sont chargées de l'archivage de ces données : le NCBI aux États-Unis, l'EBI en Europe et le DDBJ (en) au Japon. Ces institutions se coordonnent pour gérer les grandes bases de données de séquences nucléotidiques comme GenBank ou l'EMBL database, ainsi que les bases de données de séquences protéiques comme UniProt ou TrEMBL (cf. liens en fin d'article).
@@ -565,7 +581,7 @@
 recherche de séquences dans une banque de données à partir d'une autre séquence ou d'un fragment de séquence. Les logiciels les plus fréquemment utilisés sont de la famille BLAST (blastn, blastp, blastx, tblastx et leur dérivés) ;
 alignement de séquences : pour trouver les ressemblances entre deux séquences et déterminer leurs éventuelles homologies. Les alignements sont à la base de la construction de parentés suivant des critères moléculaires, ou encore de la reconnaissance de motifs particuliers dans une protéine à partir de la séquence de celle-ci ;
 recherche de motifs ou structures consensus pour caractériser les séquences.
-La bio-informatique intervient aussi dans le séquençage, avec par exemple l'utilisation de puces à ADN ou biopuce. Le principe d'une telle puce repose sur la particularité de reformer spontanément la double hélice de l’acide désoxyribonucléique face au brin complémentaire. Les quatre molécules de base de l'ADN ont en effet la particularité de s'unir deux à deux. Si un patient est porteur d'une maladie, les brins extraits de l'ADN d'un patient, vont hybrider avec les brins d'ADN synthétiques représentatifs de la maladie[4].
+La bio-informatique intervient aussi dans le séquençage, avec par exemple l'utilisation de puces à ADN ou biopuce. Le principe d'une telle puce repose sur la particularité de reformer spontanément la double hélice de l’acide désoxyribonucléique face au brin complémentaire. Les quatre molécules de base de l'ADN ont en effet la particularité de s'unir deux à deux. Si un patient est porteur d'une maladie, les brins extraits de l'ADN d'un patient, vont hybrider avec les brins d'ADN synthétiques représentatifs de la maladie.
 </t>
         </is>
       </c>
@@ -594,7 +610,9 @@
           <t>Modélisation moléculaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les macromolécules biologiques sont en général de dimensions trop petites pour être accessibles à des moyens d'observation directs tel que la microscopie. La biologie structurale est la discipline qui a pour objet de reconstruire des modèles moléculaires, par l'analyse de données indirectes ou composites. L'objectif est d'obtenir une reconstruction tridimensionnelle présentant la meilleure adéquation avec les résultats expérimentaux. Ces données sont issues principalement d'analyses cristallographiques (étude des figures de diffraction des rayons X par un cristal), de résonance magnétique nucléaire, de cryomicroscopie électronique ou de techniques de diffusion aux petits angles (diffusion des rayons X ou diffusion des neutrons). Les données issues de ces expériences constituent des données (ou contraintes) expérimentales qui sont utilisées pour calculer un modèle de la structure 3D.
 Le modèle moléculaire obtenu peut être est un ensemble de coordonnées cartésiennes des atomes composant la molécule, on parle alors de modèle atomique, ou une « enveloppe », c'est-à-dire une surface 3D décrivant la forme de la molécule, à plus basse résolution.
@@ -631,7 +649,9 @@
           <t>Construction d'arbres phylogénétiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle gènes homologues des gènes descendant d'un même gène ancestral. De façon plus spécifique, on dit de ces gènes qu'ils sont orthologues s'ils se retrouvent dans des espèces différentes (spéciation sans duplication), ou qu'ils sont paralogues s'ils se retrouvent chez la même espèce (duplication à l'intérieur du génome).
 Il est alors possible de quantifier la distance génétique entre deux espèces en comparant leurs gènes orthologues. Cette distance génétique est représentée par le nombre et le type de mutations qui séparent les deux gènes.
@@ -666,6 +686,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -691,7 +713,9 @@
           <t>Ontologies et intégration de données</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ontologies biologiques sont des graphes acycliques dirigés de vocabulaires contrôlés. Ils sont conçus pour capturer des concepts et des descriptions biologiques d'une manière qui peut être facilement catégorisée et analysée avec des ordinateurs. Une fois catégorisés de cette manière, il est possible de tirer une valeur ajoutée d'une analyse holistique et intégrée.
 Le Consortium OBO était un effort pour standardiser certaines ontologies. L'une des plus répandues est le Gene Ontology qui décrit la fonction des gènes. Il existe également des ontologies qui décrivent les phénotypes.
@@ -723,7 +747,9 @@
           <t>Exemples de tâches et débouchés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Voici un exemple de tâches et débouchés envisageables :
 aide à la création de nouveaux médicaments (prédiction de structure, d'interactions) ;
